--- a/Dane.xlsx
+++ b/Dane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciek/PycharmProjects/AppPJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950CFAE8-416A-F24C-9324-62E191E59FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029E7D96-8187-0E40-B11B-3D2B133BB786}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40720" yWindow="1680" windowWidth="38400" windowHeight="20040" xr2:uid="{F90821EA-9059-9B4B-8043-40EC1E96B2D8}"/>
+    <workbookView xWindow="38400" yWindow="1680" windowWidth="38400" windowHeight="20040" xr2:uid="{F90821EA-9059-9B4B-8043-40EC1E96B2D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436E8089-7914-744B-8F91-D2D57CF4126D}">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>186</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>69</v>
